--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12304C0-F1BF-4245-98F0-0327110627D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B620B-9487-43C2-9399-E3DB425524F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>タイプ</t>
@@ -46,10 +49,10 @@
     <t>名前</t>
   </si>
   <si>
-    <t>マシンID</t>
+    <t>キー</t>
   </si>
   <si>
-    <t>キー</t>
+    <t>名前またはID</t>
   </si>
   <si>
     <t>結果</t>
@@ -105,10 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -154,15 +154,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,8 +175,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="マシンID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -196,21 +188,20 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="マシンID"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
-  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="マシンID" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B101" totalsRowShown="0">
+  <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前またはID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -481,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -495,13 +486,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -852,19 +843,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,335 +1288,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968B620B-9487-43C2-9399-E3DB425524F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D64C02-0C27-4653-9830-BB99B46E6E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>キー</t>
-  </si>
-  <si>
-    <t>名前またはID</t>
   </si>
   <si>
     <t>結果</t>
@@ -108,7 +105,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -153,9 +183,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -174,34 +201,35 @@
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E101" totalsRowShown="0">
-  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E95" totalsRowShown="0">
+  <autoFilter ref="A1:E95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:B101" totalsRowShown="0">
-  <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="名前またはID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C80" totalsRowShown="0">
+  <autoFilter ref="A1:C80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,338 +504,338 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="3"/>
     </row>
   </sheetData>
@@ -826,22 +854,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -849,433 +877,403 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="1"/>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="1"/>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="1"/>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="1"/>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="1"/>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="1"/>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" s="1"/>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="1"/>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="1"/>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="1"/>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" s="1"/>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="1"/>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="1"/>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="1"/>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="1"/>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="1"/>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="1"/>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="1"/>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="1"/>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="1"/>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="1"/>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C95" s="1"/>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C96:C1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
+      <formula1>"Success,Failure"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Standard,Template"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D102:D1048576" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
-      <formula1>"Success,Failure"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,326 +1286,349 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+      <c r="C80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D64C02-0C27-4653-9830-BB99B46E6E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A82E4-F2AB-4D41-B926-F9182662FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -162,7 +162,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -201,9 +201,9 @@
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="タイプ" totalsRowLabel="Total"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="名前"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="キー" totalsRowFunction="count" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -215,9 +215,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="タイプ"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="名前"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="キー" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -227,9 +227,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C80" totalsRowShown="0">
   <autoFilter ref="A1:C80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="名前" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87A82E4-F2AB-4D41-B926-F9182662FAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273ECF9-6691-47E5-884E-494C8F613CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273ECF9-6691-47E5-884E-494C8F613CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C389B5-2946-4D89-891D-C93E536F51F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,11 +919,11 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1335,18 +1335,22 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C389B5-2946-4D89-891D-C93E536F51F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD80A7D-CDA9-451D-BD00-F30AFCC9A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD80A7D-CDA9-451D-BD00-F30AFCC9A310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82F65D-59AF-41F0-A893-319729BCC589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,13 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +547,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
@@ -887,7 +890,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82F65D-59AF-41F0-A893-319729BCC589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC6F55-9D7A-4F75-A3F5-4A4E94005D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -104,6 +104,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +868,7 @@
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="45" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
@@ -890,7 +891,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>

--- a/Config/JA/マシン.xlsx
+++ b/Config/JA/マシン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC6F55-9D7A-4F75-A3F5-4A4E94005D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614BFD6-7585-4F69-A30B-1AAC17C31A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
